--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840245.6604072861</v>
+        <v>896053.4916871027</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484452</v>
+        <v>492028.9342484457</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7389616.366032076</v>
+        <v>7395929.497800536</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.0899176945908</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>180.9244140386914</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>151.6707291288176</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37161101631722</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>183.9997653251645</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>147.0430257667473</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,16 +1054,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>126.8355823247562</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>139.8047964318184</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1142,13 +1142,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>173.5276703207734</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>38.42236405209108</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.0052345245268</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>32.67077719907127</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>132.795767308454</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T13" t="n">
-        <v>103.828474294603</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4556968337259</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287197</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>35.34780583513547</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,13 +1825,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045958</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518598</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.6047512078524</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.76594660771059</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.025442045436</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518598</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>15.57230972412434</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,16 +2293,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>135.1077460700519</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225808</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,13 +2773,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>195.1526410376671</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225794</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>13.51446909089648</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,13 +3187,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>227.4728658087954</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.10461178738976</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,19 +3430,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872168</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>47.6140484974989</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>227.4728658087952</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864834</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>187.4537730419679</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
-        <v>24.40875262509046</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>1263.208490437124</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>825.0660176205471</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>793.1966368353957</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>763.4622960340949</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>739.6352704837068</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069707</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1301.162795242188</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1908.865441550751</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693182</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2151.645126566221</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1892.422823883238</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1709.670890510822</v>
       </c>
       <c r="W2" t="n">
-        <v>846.059151609114</v>
+        <v>1708.85583996226</v>
       </c>
       <c r="X2" t="n">
-        <v>830.9570922288287</v>
+        <v>1693.753780581974</v>
       </c>
       <c r="Y2" t="n">
-        <v>422.6709685284821</v>
+        <v>1689.508060922032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397443</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106445</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.1238364150125</v>
+        <v>946.0189231344086</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>773.4572116176336</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>607.5792188191563</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>454.3764621233809</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>277.669408085137</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213225</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>742.0756208892835</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1077.736506291245</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.99530944889</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674671</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645013</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214717</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2274.705037512714</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2028.825591091169</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1750.392590344274</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1463.437082214705</v>
       </c>
       <c r="W4" t="n">
-        <v>1611.753880486479</v>
+        <v>1191.410677800996</v>
       </c>
       <c r="X4" t="n">
-        <v>1366.362125819891</v>
+        <v>946.0189231344086</v>
       </c>
       <c r="Y4" t="n">
-        <v>1138.942455134</v>
+        <v>946.0189231344086</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.8817772575625</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C5" t="n">
-        <v>594.7797084813899</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>562.9103276962385</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>533.1759868949378</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>509.3489613445495</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>1059.427067402413</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y5" t="n">
-        <v>1055.18134774247</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505.3151106838835</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>505.3151106838835</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>339.4371178854062</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1534.548642693043</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1256.115641946149</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>969.160133816579</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>697.1337294028706</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>697.1337294028706</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>697.1337294028706</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523338</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C8" t="n">
-        <v>526.2430866357572</v>
+        <v>1122.193246817765</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>686.2834619922098</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>656.5491211909091</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>228.6816916001168</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>228.6816916001168</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>472.0266229114306</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L8" t="n">
-        <v>473.4386690283516</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4386690283516</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283516</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274466</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626542</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.971253637588</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y8" t="n">
-        <v>1390.685129937242</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>672.7335162447916</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447916</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.7008790724198</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1391675556447</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1391675556447</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>353.381163806382</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>176.6741097681382</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681382</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>123.3516206232026</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>578.4043219222976</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1020.663125079942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1440.332374305724</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223633</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.475957802088</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1433.475957802088</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.520449672519</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>874.4940452588105</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>874.4940452588105</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>874.4940452588105</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
         <v>1649.322926419992</v>
@@ -5027,55 +5027,55 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392931</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2006.146234892152</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2006.146234892152</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006191</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W11" t="n">
         <v>3777.103341668068</v>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5176,10 +5176,10 @@
         <v>947.2320137580464</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E13" t="n">
         <v>439.0343056935313</v>
@@ -5188,13 +5188,13 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5224,7 +5224,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
         <v>2449.276971119686</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984729</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168153</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342597</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500892</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333634</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111516</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469637</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987274</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819523</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>467.790109783475</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342122</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111516</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111516</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1367.612756011984</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177145</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397526</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111516</v>
@@ -5519,22 +5519,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055758</v>
@@ -5555,10 +5555,10 @@
         <v>3506.38502577451</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111516</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1449.442036875566</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1222.022366189674</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D20" t="n">
         <v>1649.322926419992</v>
@@ -5741,7 +5741,7 @@
         <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
         <v>97.15276605397516</v>
@@ -5750,25 +5750,25 @@
         <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
-        <v>352.5751665457787</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1186.925458503957</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1186.925458503957</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503957</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
         <v>4667.644769302701</v>
@@ -5792,10 +5792,10 @@
         <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>1051.621568765315</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>879.0598572485399</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777442</v>
+        <v>713.1818644500624</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284814</v>
+        <v>543.4238607007997</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>366.7168066625559</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>201.1255316883836</v>
       </c>
       <c r="H22" t="n">
         <v>185.3959259064398</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.450585778171</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>1243.440187484302</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127512</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>809.5937635959762</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>809.5937635959762</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2062.611242231367</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1775.655734101798</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1503.629329688089</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1258.237575021502</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6938,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2093.658967439508</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3219.389950875955</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4199.569617446262</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>451.8971520785115</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,13 +7120,13 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
         <v>1726.993304878939</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7169,55 +7169,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538982</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538982</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>838.9992856166232</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C40" t="n">
-        <v>838.9992856166232</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2670.825451691258</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U40" t="n">
-        <v>2062.611242231368</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V40" t="n">
-        <v>1775.655734101798</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W40" t="n">
-        <v>1503.62932968809</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X40" t="n">
-        <v>1258.237575021502</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y40" t="n">
-        <v>1030.81790433561</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="41">
@@ -7397,55 +7397,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176685</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.233352746991</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580388</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
@@ -7454,7 +7454,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405614</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2124.452389553094</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.496881423524</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.470477009816</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.078722343228</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1092.659051657336</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7640,58 +7640,58 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707797</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,37 +7716,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>838.9992856166233</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>673.121292818146</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
@@ -7810,7 +7810,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2513.605954495038</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2235.172953748143</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1948.217445618574</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1203.379615852386</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>211.210279727798</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>339.051399395921</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,19 +8374,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="L8" t="n">
-        <v>1.426309209011094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,13 +8611,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,7 +8626,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>232.3955795510919</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>309.6062697457076</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.4234241057208</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140683</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.02274874679097</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.860703444614</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523922</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>127.5393291307519</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328637</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>185.1957776566205</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.011132734623</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>184.78315617749</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>268.0111327346233</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>161.9268490649756</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>268.0111327346226</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.5985112554907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.1344859240866</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.0111327346227</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>268.0111327346226</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.9526776417182</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>74.15349933190429</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>229.4233680290252</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>48.17580493063033</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>110.0349065174844</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.17580493063055</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,13 +25834,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>88.19489769745782</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
-        <v>219.0118993322389</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>649508.9304638414</v>
+        <v>651452.7834941789</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>649508.9304638414</v>
+        <v>652003.2308753749</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649871.4914202149</v>
+        <v>652003.2308753749</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619523.3795854914</v>
+        <v>619523.3795854913</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619523.3795854913</v>
+        <v>619523.3795854911</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619523.3795854914</v>
+        <v>619523.3795854913</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645667.9741445328</v>
+        <v>645667.9741445329</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645667.9741445329</v>
+        <v>645667.9741445328</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>294881.0259397246</v>
       </c>
       <c r="C2" t="n">
+        <v>294881.0259397246</v>
+      </c>
+      <c r="D2" t="n">
         <v>294881.0259397247</v>
-      </c>
-      <c r="D2" t="n">
-        <v>294881.0259397248</v>
       </c>
       <c r="E2" t="n">
         <v>278038.143884422</v>
@@ -26341,7 +26341,7 @@
         <v>289771.6712755438</v>
       </c>
       <c r="L2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="M2" t="n">
         <v>289771.6712755437</v>
@@ -26350,10 +26350,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
-        <v>289771.6712755439</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="P2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039036</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390602</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856138</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784464</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971961</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414877</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
+        <v>13668.38414064832</v>
+      </c>
+      <c r="F4" t="n">
         <v>13668.38414064833</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13668.38414064832</v>
       </c>
       <c r="G4" t="n">
         <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13668.38414064832</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26451,13 +26451,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049262</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049256</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814204</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82035.30272231862</v>
+        <v>-115644.7504195171</v>
       </c>
       <c r="C6" t="n">
-        <v>60155.99793739143</v>
+        <v>81197.10377892565</v>
       </c>
       <c r="D6" t="n">
-        <v>54753.18557776478</v>
+        <v>98537.64815283175</v>
       </c>
       <c r="E6" t="n">
-        <v>-32948.87628590115</v>
+        <v>29038.78370121506</v>
       </c>
       <c r="F6" t="n">
-        <v>190850.4174661261</v>
+        <v>190773.8589113293</v>
       </c>
       <c r="G6" t="n">
-        <v>190850.4174661262</v>
+        <v>190773.8589113293</v>
       </c>
       <c r="H6" t="n">
-        <v>190850.4174661261</v>
+        <v>190773.8589113293</v>
       </c>
       <c r="I6" t="n">
-        <v>179443.5114664191</v>
+        <v>179420.2871270364</v>
       </c>
       <c r="J6" t="n">
-        <v>86793.76175426834</v>
+        <v>37177.17327426216</v>
       </c>
       <c r="K6" t="n">
-        <v>197808.2270992586</v>
+        <v>183970.9941920314</v>
       </c>
       <c r="L6" t="n">
-        <v>188860.6160107487</v>
+        <v>197785.002759876</v>
       </c>
       <c r="M6" t="n">
-        <v>11017.24048879092</v>
+        <v>62795.05814687264</v>
       </c>
       <c r="N6" t="n">
-        <v>197808.2270992586</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="O6" t="n">
-        <v>197808.2270992588</v>
+        <v>197785.0027598759</v>
       </c>
       <c r="P6" t="n">
-        <v>197808.2270992587</v>
+        <v>197785.0027598759</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.9466570854679</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>178.0663665268203</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16.38969458295247</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>205.9345293532542</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>213.3840877378042</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>267.9080130197351</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>44.00051207685108</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>103.6158555255109</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>112.7111826904425</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27907,16 +27907,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>376.5286747343913</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.89519800727041</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>211.210279727798</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>339.051399395921</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="L8" t="n">
-        <v>1.426309209011094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>232.3955795510919</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>309.6062697457076</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.4234241057208</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140683</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697549</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36610,7 +36610,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-8.020322679707264e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37245,7 +37245,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,13 +37318,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.02274874679097</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.860703444614</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523922</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38017,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>127.5393291307519</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328637</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
